--- a/src/excel/UserDetail.xlsx
+++ b/src/excel/UserDetail.xlsx
@@ -56,13 +56,22 @@
     <t xml:space="preserve">aaaaaaaa</t>
   </si>
   <si>
-    <t xml:space="preserve">null</t>
+    <t xml:space="preserve">da c1ap nhat xxxxxx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hihi@g1mail.comxxxxxx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hihi1xxxxxxx</t>
   </si>
   <si>
     <t xml:space="preserve">1a21a12a2a12</t>
   </si>
   <si>
     <t xml:space="preserve">Tue Jun 21 2022 14:04:22 GMT+0700 (Indochina Time)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wed Jun 22 2022 14:43:49 GMT+0700 (Indochina Time)</t>
   </si>
 </sst>
 </file>
@@ -424,19 +433,19 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
